--- a/Fund Code.xlsx
+++ b/Fund Code.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B628"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,79 +448,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PGIM保德信美國投資級企業債券基金-美元月配息型</t>
+          <t>元大亞太優質高股息100指數基金-美元(B)配息</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F0000149FB:FO</t>
+          <t>F00000ZLIZ:FO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PGIM保德信中國中小基金-美元</t>
+          <t>日盛全球智能車基金(美元)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F00000XOZN:FO</t>
+          <t>F000011BHU:FO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PGIM保德信中國品牌基金-美元</t>
+          <t>日盛亞洲非投資等級債券基金(美元)(A不分配)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F00000W9JP:FO</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PGIM保德信全球醫療生化基金-美元</t>
+          <t>台新中証消費服務領先指數基金-美元</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F00000UQ56:FO</t>
+          <t>F000015SZL:FO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PGIM保德信美國投資級企業債券基金-美元累積型</t>
+          <t>台新北美收益基金-美元累積</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F0000149F9:FO</t>
+          <t>F000015RZW:FO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PGIM保德信策略成長ETF組合基金-美元</t>
+          <t>台新全球不動產入息基金-美元累積</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F00000YRFK:FO</t>
+          <t>F00000WAEF:FO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PGIM保德信新興市場企業債券基金-美元月配息型</t>
+          <t>永豐全球多元入息基金-美元累積型</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中國信託智慧城市建設基金-美元</t>
+          <t>永豐滬深300紅利指數基金-美金</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,19 +544,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>中國信託樂齡收益平衡基金-美元A</t>
+          <t>合庫AI電動車及車聯網創新基金-美元</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00001CEY2:FO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>中國信託樂齡收益平衡基金-美元B</t>
+          <t>合庫全球非投資等級債券基金-A累積型美元</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>元大亞太優質高股息100指數基金-美元(B)配息</t>
+          <t>合庫新興多重收益基金-A類(累積型)美元</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,43 +580,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>元大新東協平衡基金-美元</t>
+          <t>安聯日本股票基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WZU2:FO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>日盛中國戰略A股基金(美元)</t>
+          <t>安聯亞太高息股票基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WQQE:FO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>日盛全球智能車基金(美元)</t>
+          <t>安聯美國短年期非投資等級債券基金-A類型(累積)-美元</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000013ERY:FO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>日盛亞洲非投資等級債券基金(美元)(A不分配)</t>
+          <t>安聯動力亞洲非投資等級債券基金-AMg穩</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>日盛亞洲非投資等級債券基金(美元)(B月分配)</t>
+          <t>貝萊德中國基金A2美元</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,43 +640,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>台新中國精選中小基金-美元</t>
+          <t>貝萊德日本特別時機基金 Hedged A2美元</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000PYFK:FO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>台新中証消費服務領先指數基金-美元</t>
+          <t>貝萊德日本特別時機基金A2 美元</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000PYFK:FO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>台新北美收益基金-美元配息</t>
+          <t>貝萊德日本靈活股票基金A2美元</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Q4HH:FO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>台新北美收益基金-美元累積</t>
+          <t>貝萊德世界金融基金A2美元</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>台新全球不動產入息基金-美元配息</t>
+          <t>貝萊德世界科技基金A2美元</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>台新全球不動產入息基金-美元累積</t>
+          <t>貝萊德世界能源基金A2美元</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>永豐全球多元入息基金-美元月配型</t>
+          <t>貝萊德世界健康科學基金A2美元</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>永豐全球多元入息基金-美元累積型</t>
+          <t>貝萊德世界黃金基金A2美元</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,31 +736,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>永豐滬深300紅利指數基金-美金</t>
+          <t>貝萊德世界債券基金A2美元</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05ZF0:FO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>兆豐中國A股基金(美金)</t>
+          <t>貝萊德世界債券基金A3美元</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05ZOD:FO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>兆豐中國內需A股基金(美金)</t>
+          <t>貝萊德世界礦業基金A2美元</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>合庫AI電動車及車聯網創新基金-美元</t>
+          <t>貝萊德永續能源基金A2美元</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,79 +784,79 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>合庫全球非投資等級債券基金-A累積型美元</t>
+          <t>貝萊德全球股票收益基金A2美元</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000LIV1:FO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>合庫全球非投資等級債券基金-B月配型美元</t>
+          <t>貝萊德全球股票收益基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000NOY1:FO</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>合庫新興多重收益基金-A類(累積型)美元</t>
+          <t>貝萊德全球通膨連結債券基金A2美元</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000003TLL:FO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>合庫新興多重收益基金-B類(月配型)美元</t>
+          <t>貝萊德全球通膨連結債券基金A3美元</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000003TLN:FO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>安聯AI人工智慧基金-AT累積類股(美元)</t>
+          <t>貝萊德全球智慧數據股票入息基金A2美元</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000000P6:FO</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>安聯中國股票基金-A配息類股(美元)</t>
+          <t>貝萊德全球智慧數據股票入息基金A6 美元(穩定配息)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000UKBR:FO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>安聯中國策略基金-美元</t>
+          <t>貝萊德印度基金A2美元</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,19 +868,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>安聯中華新思路基金-美元</t>
+          <t>貝萊德亞太股票收益基金A2美元</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000004466:FO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>安聯日本股票基金-AT累積類股(美元避險)</t>
+          <t>貝萊德亞太股票收益基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>安聯日本股票基金-A配息類股(美元)</t>
+          <t>貝萊德亞洲巨龍基金A2美元</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,43 +904,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>安聯水資源基金-AT累積類股(美元)</t>
+          <t>貝萊德亞洲老虎債券基金A2美元</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04SSN:FO</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>安聯主題趨勢基金-AT累積類股(美元)</t>
+          <t>貝萊德亞洲老虎債券基金A3美元</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05WOF:FO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>安聯四季回報債券組合基金-A類型(累積)-美元</t>
+          <t>貝萊德亞洲老虎債券基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000O2YL:FO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>安聯四季成長組合基金-美元</t>
+          <t>貝萊德亞洲非投資等級債券基金-美元月配型</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>安聯四季雙收入息組合基金-A類型(累積)-美元</t>
+          <t>貝萊德拉丁美洲基金A2美元</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,79 +964,79 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>安聯四季雙收入息組合基金-B類型(月配息)-美元</t>
+          <t>貝萊德美元非投資等級債券基金A2美元</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04SSH:FO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>安聯全球永續發展基金-A配息類股(美元)</t>
+          <t>貝萊德美元非投資等級債券基金A3美元</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05ZP6:FO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>安聯全球生技趨勢基金-美元</t>
+          <t>貝萊德美元非投資等級債券基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000NOY5:FO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>安聯全球收益成長基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德美元優質債券基金A2美元</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04AN7:FO</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>安聯全球高成長股票基金-AT累積類股(美元)</t>
+          <t>貝萊德美元優質債券基金A3美元</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05ZP4:FO</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>安聯全球高成長科技基金-A配息類股(美元)</t>
+          <t>貝萊德美元儲備基金A2 美元</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04ASX:FO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>安聯全球新興市場高股息基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德美國中型企業價值基金A2美元</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,31 +1048,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>安聯全球新興市場高股息基金-AM穩定月收類股(美元避險)</t>
+          <t>貝萊德美國政府房貸債券基金A2美元</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04SS5:FO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>安聯全球新興市場高股息基金-AT累積類股(美元)</t>
+          <t>貝萊德美國政府房貸債券基金A3美元</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR05ZOP:FO</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>安聯全球機會債券基金-AMf固定月配類股(美元)</t>
+          <t>貝萊德美國價值型基金A2美元</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>安聯全球機會債券基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德美國增長型基金A2美元</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>安聯全球機會債券基金-AT累積類股(美元)</t>
+          <t>貝萊德美國靈活股票基金A2美元</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>安聯印尼股票基金-A配息類股(美元)</t>
+          <t>貝萊德英國基金A2美元</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,19 +1120,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>安聯多元信用債券基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德智慧數據環球小型企業基金A2美元</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04AMN:FO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>安聯多元信用債券基金-AT累積類股(美元)</t>
+          <t>貝萊德新興市場基金A2美元</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>安聯收益成長多重資產基金-A類型(累積)-美元</t>
+          <t>貝萊德新興市場債券基金A2美元</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>安聯收益成長多重資產基金-B類型(月配息)-美元</t>
+          <t>貝萊德新興市場債券基金A3美元</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>安聯收益成長基金-AMg7月收總收益類股(美元)</t>
+          <t>貝萊德新興市場債券基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>安聯收益成長基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德新興市場當地債券基金A2美元</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>安聯收益成長基金-AT累積類股(美元)</t>
+          <t>貝萊德新興市場當地債券基金A3美元</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>安聯亞太高息股票基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德新興歐洲基金A2美元</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>安聯亞洲多元收益基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德歐元市場基金 Hedged A2美元</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>安聯亞洲多元收益基金-AT累積類股(美元)</t>
+          <t>貝萊德歐元市場基金A2美元</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>安聯亞洲總回報股票基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德歐元優質債券基金A2美元</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>安聯亞洲總回報股票基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德歐元優質債券基金A3美元</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>安聯亞洲總回報股票基金-A配息類股(美元)</t>
+          <t>貝萊德歐元優質債券基金Hedged A2 美元</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>安聯亞洲靈活債券基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德歐洲特別時機基金A2美元</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>安聯亞洲靈活債券基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德歐洲特別時機基金Hedged A2美元</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>安聯亞洲靈活債券基金-AT累積類股(美元)</t>
+          <t>貝萊德歐洲基金A2美元</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>安聯東方入息基金-A 配息類股(美元避險)</t>
+          <t>貝萊德歐洲基金Hedged A2美元</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>安聯東方入息基金-A配息類股(美元)</t>
+          <t>貝萊德歐洲價值型基金A2美元</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>安聯美元非投資等級債券基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德歐洲價值型基金Hedged A2美元</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>安聯美元非投資等級債券基金-AT累積類股(美元)</t>
+          <t>貝萊德歐洲靈活股票基金A2美元</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>安聯美元短年期非投資等級債券基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德營養科學基金A2美元</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>安聯美元短年期非投資等級債券基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德環球企業債券基金A2美元</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>安聯美元短年期非投資等級債券基金-AT累積類股(美元)</t>
+          <t>貝萊德環球企業債券基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>安聯美國多元投資風格股票基金-AT累積類股(美元)</t>
+          <t>貝萊德環球非投資等級債券基金A2美元</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>安聯美國收益基金-AMf固定月配類股(美元)</t>
+          <t>貝萊德環球非投資等級債券基金A3美元</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>安聯美國收益基金-AMg穩定月收總收益類股(美元)</t>
+          <t>貝萊德環球非投資等級債券基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>安聯美國收益基金-AM穩定月收類股(美元)</t>
+          <t>貝萊德環球前瞻股票基金A2美元</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>安聯美國收益基金-AT累積類股(美元)</t>
+          <t>貝萊德環球政府債券基金A2美元</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>安聯美國短年期非投資等級債券基金-A類型(累積)-美元</t>
+          <t>貝萊德環球政府債券基金A3美元</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>安聯美國短年期非投資等級債券基金-B類型(月配息)-美元</t>
+          <t>貝萊德環球動力股票基金A2美元</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>安聯香港股票基金-A配息類股(美元)</t>
+          <t>貝萊德環球資產配置基金A2美元</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>安聯泰國股票基金-A配息類股(美元)</t>
+          <t>施羅德中國非投資等級債券基金(美元)-累積</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>安聯動力亞洲非投資等級債券基金-AMg穩</t>
+          <t>柏瑞大中華股票基金A</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>安聯動力亞洲非投資等級債券基金-AT累積類股(美元)</t>
+          <t>柏瑞日本股票基金A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>安聯策略信用債券基金-AT累積類股(美元)</t>
+          <t>柏瑞印度股票基金A</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>安聯新興亞洲股票基金-A配息類股(美元)</t>
+          <t>柏瑞亞洲(日本除外)股票基金A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>安聯綠色債券基金-AMf固定月配類股(美元避險)</t>
+          <t>柏瑞拉丁美洲股票基金A</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>安聯綠色債券基金-AT累積類股(美元避險)</t>
+          <t>柏瑞美國大型資本研究增值基金A</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>安聯歐元非投資等級債券基金-AM穩定月收類股(美元避險)</t>
+          <t>柏瑞美國研究增值核心股票基金A</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>安聯歐元非投資等級債券基金-AT累積類股(美元避險)</t>
+          <t>柏瑞歐洲研究增值股票基金A</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>安聯歐洲小型股票基金-AT累積類股(美元避險)</t>
+          <t>柏瑞環球重點股票基金A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>安聯歐洲成長精選基金-AT累積類股(美元避險)</t>
+          <t>柏瑞環球動態資產配置基金A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>安聯歐洲高息股票基金-AMg穩定月收總收益類股(美元避險)</t>
+          <t>柏瑞環球債券基金A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>安聯歐洲高息股票基金-AM穩定月收類股(美元避險)</t>
+          <t>柏瑞環球新興市場精選股票基金A</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>安聯歐陸成長基金-AT累積類股(美元避險)</t>
+          <t>國泰人民幣貨幣市場基金(美元)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>安聯韓國股票基金-A配息類股(美元)</t>
+          <t>國泰中國內需增長基金(美元)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>安聯寵物新經濟基金-AT累積類股(美元)</t>
+          <t>國泰中國新興戰略基金(美元)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>貝萊德ESG社會責任多元資產基金A8多幣別穩定月配息股份-美元幣避險</t>
+          <t>國泰中港台基金(美元)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>貝萊德ESG社會責任多元資產基金Hedged A2 美元</t>
+          <t>國泰主順位資產抵押非投資等級債券基金A(美元)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>貝萊德中國基金A2美元</t>
+          <t>國泰主順位資產抵押非投資等級債券基金B(美元)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>貝萊德日本特別時機基金 Hedged A2美元</t>
+          <t>國泰全球基礎建設基金(美元)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>貝萊德日本特別時機基金A2 美元</t>
+          <t>國泰全球資源基金(美元)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>貝萊德日本靈活股票基金 Hedged A2 美元</t>
+          <t>國泰全球積極組合基金(美元)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>貝萊德日本靈活股票基金A2美元</t>
+          <t>國泰亞洲成長基金(美元)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>貝萊德世界地產證券基金 A2 美元</t>
+          <t>國泰美國多重收益平衡基金A(美元)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>貝萊德世界地產證券基金 A6 美元 (穩定配息)</t>
+          <t>國泰美國多重收益平衡基金B(美元)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>貝萊德世界金融基金A2美元</t>
+          <t>國泰泰享退系列２０２９目標日期組合基金A(美元)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>貝萊德世界科技基金A2美元</t>
+          <t>國泰泰享退系列２０３９目標日期組合基金A(美元)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>貝萊德世界能源基金A2美元</t>
+          <t>國泰泰享退系列２０４９目標日期組合基金A(美元)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>貝萊德世界健康科學基金A2美元</t>
+          <t>國泰新興市場基金(美元)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>貝萊德世界黃金基金A2美元</t>
+          <t>國泰新興非投資等級債券基金A(美元)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>貝萊德世界債券基金A2美元</t>
+          <t>國泰新興非投資等級債券基金B(美元)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>貝萊德世界債券基金A3美元</t>
+          <t>第一金全球水電瓦斯及基礎建設收益基金-美元累積型</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>貝萊德世界礦業基金A2美元</t>
+          <t>第一金全球非投資等級債券基金-美元累積型</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>貝萊德永續能源基金A2美元</t>
+          <t>第一金全球富裕國家債券基金-美元累積型</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>貝萊德全球股票收益基金A2美元</t>
+          <t>第一金美國100大企業債券基金-美元累積型</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>貝萊德全球股票收益基金A6美元(穩定配息)</t>
+          <t>統一大中華中小基金美元</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>貝萊德全球通膨連結債券基金A2美元</t>
+          <t>統一大東協高股息美元</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>貝萊德全球通膨連結債券基金A3美元</t>
+          <t>統一大龍騰中國基金美元</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>貝萊德全球智慧數據股票入息基金A2美元</t>
+          <t>統一中國非投資等級債券基金-累積美元</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>貝萊德全球智慧數據股票入息基金A6 美元(穩定配息)</t>
+          <t>統一全球智聯網AIoT美元</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>貝萊德印度基金A2美元</t>
+          <t>統一全球新科技基金-美元</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>貝萊德亞太股票收益基金A2美元</t>
+          <t>統一強漢基金美元</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>貝萊德亞太股票收益基金A6美元(穩定配息)</t>
+          <t>野村全球金融收益基金(美元累積)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>貝萊德亞洲巨龍基金A2美元</t>
+          <t>野村亞太收益多重資產基金(美元累積)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>貝萊德亞洲老虎債券基金A2美元</t>
+          <t>野村亞太新興債券基金(美元累積)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>貝萊德亞洲老虎債券基金A3美元</t>
+          <t>野村亞太複合非投資等級債券基金(美元累積)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>貝萊德亞洲老虎債券基金A6美元(穩定配息)</t>
+          <t>野村環球基金(美元)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>貝萊德亞洲非投資等級債券基金-美元月配型</t>
+          <t>凱基雲端趨勢基金-美元</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>貝萊德拉丁美洲基金A2美元</t>
+          <t>凱基醫院及長照產業基金-美元</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>貝萊德美元非投資等級債券基金A2美元</t>
+          <t>富邦中國非投資等級債券基金-A類型(美元)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>貝萊德美元非投資等級債券基金A3美元</t>
+          <t>富邦中國非投資等級債券基金-B類型(美元)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>貝萊德美元非投資等級債券基金A6美元(穩定配息)</t>
+          <t>富邦中國優質債券基金-A類型(美元)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>貝萊德美元優質債券基金A2美元</t>
+          <t>富邦中國優質債券基金-B類型(美元)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>貝萊德美元優質債券基金A3美元</t>
+          <t>富達中國內需消費基金(A股美元)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>貝萊德美元儲備基金A2 美元</t>
+          <t>富達中國內需消費基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>貝萊德美國中型企業價值基金A2美元</t>
+          <t>富達中國聚焦基金(A股美元)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>貝萊德美國政府房貸債券基金A2美元</t>
+          <t>富達太平洋基金(A股美元)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>貝萊德美國政府房貸債券基金A3美元</t>
+          <t>富達太平洋基金(A股美元避險)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>貝萊德美國價值型基金A2美元</t>
+          <t>富達日本價值基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>貝萊德美國增長型基金A2美元</t>
+          <t>富達世界基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>貝萊德美國靈活股票基金A2美元</t>
+          <t>富達北歐基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>貝萊德英國基金A2美元</t>
+          <t>富達永續發展人口商機基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>貝萊德智慧數據環球小型企業基金A2美元</t>
+          <t>富達永續發展日本股票基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>貝萊德新興市場股票收益基金A2美元</t>
+          <t>富達永續發展水資源暨環保趨勢基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>貝萊德新興市場股票收益基金A6美元(穩定配息)</t>
+          <t>富達永續發展全球存股優勢基金(A股【F1穩定月配息】美元避險)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>貝萊德新興市場基金A2美元</t>
+          <t>富達永續發展全球存股優勢基金(A股美元)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>貝萊德新興市場債券基金A2美元</t>
+          <t>富達永續發展全球存股優勢基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>貝萊德新興市場債券基金A3美元</t>
+          <t>富達永續發展全球健康護理基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>貝萊德新興市場債券基金A6美元(穩定配息)</t>
+          <t>富達永續發展多重資產收益基金(A股美元)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>貝萊德新興市場當地債券基金A2美元</t>
+          <t>富達永續發展亞洲股票基金(A股美元)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>貝萊德新興市場當地債券基金A3美元</t>
+          <t>富達永續發展亞洲股票基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>貝萊德新興歐洲基金A2美元</t>
+          <t>富達永續發展美國股票基金(A股美元)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>貝萊德歐元市場基金 Hedged A2美元</t>
+          <t>富達永續發展消費品牌基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>貝萊德歐元市場基金A2美元</t>
+          <t>富達永續發展策略債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>貝萊德歐元優質債券基金A2美元</t>
+          <t>富達永續發展歐洲股票基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>貝萊德歐元優質債券基金A3美元</t>
+          <t>富達全球入息基金(A股【F1穩定月配息】美元)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>貝萊德歐元優質債券基金Hedged A2 美元</t>
+          <t>富達全球入息基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>貝萊德歐洲特別時機基金A2美元</t>
+          <t>富達全球主題機會基金(A股美元)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>貝萊德歐洲特別時機基金Hedged A2美元</t>
+          <t>富達全球多重資產收益基金(A股【F1穩定月配息】美元)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>貝萊德歐洲基金A2美元</t>
+          <t>富達全球多重資產收益基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>貝萊德歐洲基金Hedged A2美元</t>
+          <t>富達全球金融服務基金(A股美元)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>貝萊德歐洲價值型基金A2美元</t>
+          <t>富達全球非投資等級債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>貝萊德歐洲價值型基金Hedged A2美元</t>
+          <t>富達全球科技基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>貝萊德歐洲靈活股票基金A2美元</t>
+          <t>富達全球科技基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>貝萊德營養科學基金A2美元</t>
+          <t>富達全球通膨連結債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>貝萊德環球企業債券基金A2美元</t>
+          <t>富達全球短期收益基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>貝萊德環球企業債券基金A6美元(穩定配息)</t>
+          <t>富達全球債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>貝萊德環球非投資等級債券基金A2美元</t>
+          <t>富達全球聚焦基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>貝萊德環球非投資等級債券基金A3美元</t>
+          <t>富達全球優質債券基金(A股【F1穩定月配息】美元)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>貝萊德環球非投資等級債券基金A6美元(穩定配息)</t>
+          <t>富達全球優質債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>貝萊德環球前瞻股票基金A2美元</t>
+          <t>富達印尼基金(A股美元)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>貝萊德環球政府債券基金A2美元</t>
+          <t>富達印度聚焦基金(A股美元)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>貝萊德環球政府債券基金A3美元</t>
+          <t>富達亞太入息基金(A股美元)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>貝萊德環球動力股票基金A2美元</t>
+          <t>富達亞洲小型企業基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>貝萊德環球資產配置基金A2美元</t>
+          <t>富達亞洲成長趨勢基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>施羅德中國非投資等級債券基金(美元)-分配</t>
+          <t>富達亞洲非投資等級債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>施羅德中國非投資等級債券基金(美元)-累積</t>
+          <t>富達亞洲債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>柏瑞大中華股票基金A</t>
+          <t>富達拉丁美洲基金(A股美元)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>柏瑞日本股票基金A</t>
+          <t>富達東協基金(A股美元)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>柏瑞印度股票基金A</t>
+          <t>富達東協基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>柏瑞亞洲(日本除外)股票基金A</t>
+          <t>富達美元非投資等級債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>柏瑞拉丁美洲股票基金A</t>
+          <t>富達美元現金基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>柏瑞美國大型資本研究增值基金A</t>
+          <t>富達美元債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>柏瑞美國研究增值核心股票基金A</t>
+          <t>富達美國成長基金(A股美元)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>柏瑞歐洲研究增值股票基金A</t>
+          <t>富達美國基金(A股美元)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>柏瑞環球重點股票基金A</t>
+          <t>富達泰國基金(A股美元)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>柏瑞環球動態資產配置基金 ADC</t>
+          <t>富達富達目標基金2020(A股美元)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>柏瑞環球動態資產配置基金A</t>
+          <t>富達新興市場基金(A股美元)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>柏瑞環球基金-柏瑞環球動態資產配置基金 ADCT(穩定月配)</t>
+          <t>富達新興市場基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>柏瑞環球債券基金A</t>
+          <t>富達新興市場債券基金(A股美元)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>柏瑞環球新興市場精選股票基金A</t>
+          <t>富達新興市場債券基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>國泰人民幣貨幣市場基金(美元)</t>
+          <t>富達新興亞洲基金(A股美元)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>國泰中國內需增長基金(美元)</t>
+          <t>富達新興亞洲基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>國泰中國新興戰略基金(美元)</t>
+          <t>富達新興歐非中東基金(A股美元)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>國泰中港台基金(美元)</t>
+          <t>富達新興歐非中東基金(A股累計美元)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>國泰主順位資產抵押非投資等級債券基金A(美元)</t>
+          <t>富達德國基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>國泰主順位資產抵押非投資等級債券基金B(美元)</t>
+          <t>富達歐元債券基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>國泰全球基礎建設基金(美元)</t>
+          <t>富達歐洲小型企業基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>國泰全球資源基金(美元)</t>
+          <t>富達歐洲多重資產收益基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>國泰全球積極組合基金(美元)</t>
+          <t>富達歐洲非投資等級債券基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>國泰亞洲成長基金(美元)</t>
+          <t>富達歐洲動能基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>國泰美國多重收益平衡基金A(美元)</t>
+          <t>富達歐洲基金(A股累計美元避險)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>國泰美國多重收益平衡基金B(美元)</t>
+          <t>富蘭克林華美全球投資級債券基金(累積型)-美元</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>國泰泰享退系列２０２９目標日期組合基金A(美元)</t>
+          <t>富蘭克林華美亞太平衡基金(累積型)-美元</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>國泰泰享退系列２０３９目標日期組合基金A(美元)</t>
+          <t>富蘭克林華美特別股收益基金(A累積型)-美元</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>國泰泰享退系列２０４９目標日期組合基金A(美元)</t>
+          <t>富蘭克林華美退休傘型基金之目標2027組合基金-美元</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>國泰新興市場基金(美元)</t>
+          <t>富蘭克林華美退休傘型基金之目標2037組合基金-美元</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>國泰新興非投資等級債券基金A(美元)</t>
+          <t>富蘭克林華美退休傘型基金之目標2047組合基金-美元</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>國泰新興非投資等級債券基金B(美元)</t>
+          <t>富蘭克林華美策略高股息基金(累積型)-美元</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>第一金中國世紀基金-美元</t>
+          <t>富蘭克林華美新興國家固定收益基金(A累積型)-美元</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>第一金全球AI人工智慧基金-美元</t>
+          <t>富蘭克林華美新興趨勢傘型基金之積極回報債券組合基金(分配型)-美元</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>第一金全球AI機器人及自動化產業基金-美元</t>
+          <t>景順全天候智慧組合基金-累積型美元</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>第一金全球水電瓦斯及基礎建設收益基金-美元配息型</t>
+          <t>華南永昌Shiller US CAPE ETF組合基金-累積美元</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>第一金全球水電瓦斯及基礎建設收益基金-美元累積型</t>
+          <t>華南永昌全球物聯網精選基金-美元</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>第一金全球非投資等級債券基金-美元配息型</t>
+          <t>華南永昌多重資產入息平衡基金-累積美元</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>第一金全球非投資等級債券基金-美元累積型</t>
+          <t>匯豐中國Ａ股匯聚基金- 美元</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>第一金全球富裕國家債券基金-美元配息型</t>
+          <t>匯豐中國科技精選基金- 美元</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>第一金全球富裕國家債券基金-美元累積型</t>
+          <t>新光全球AI新創產業基金(美元)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>第一金美國100大企業債券基金-美元配息型</t>
+          <t>新光全球特別股基金(A累積)美元</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>第一金美國100大企業債券基金-美元累積型</t>
+          <t>新光新興富域國家債券(A累積)美元</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>統一大中華中小基金美元</t>
+          <t>新光新興富域國家債券基金(B配息)美元</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>統一大東協高股息美元</t>
+          <t>瑞銀亞洲非投資等級債券基金(美元)A類型(累積)</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>統一大龍騰中國基金美元</t>
+          <t>群益中國金采平衡基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>統一中國非投資等級債券基金-月配美元</t>
+          <t>群益全民成長樂退組合基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>統一中國非投資等級債券基金-累積美元</t>
+          <t>群益全民優質樂退組合基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>統一全球智聯網AIoT美元</t>
+          <t>群益全球關鍵生技基金-美元</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>統一全球新科技基金-美元</t>
+          <t>群益印度中小基金-美元</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>統一強漢基金美元</t>
+          <t>群益東協成長基金-美元</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>野村全球金融收益基金(美元月配)</t>
+          <t>群益金選報酬平衡基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>野村全球金融收益基金(美元累積)</t>
+          <t>群益美國新創亮點基金-美元</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>野村亞太收益多重資產基金(美元月配)</t>
+          <t>群益華夏盛世基金-美元</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>野村亞太收益多重資產基金(美元累積)</t>
+          <t>群益環球金綻雙喜基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>野村亞太新興債券基金(美元月配)</t>
+          <t>路博邁5G股票基金T累積(美元)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>野村亞太新興債券基金(美元累積)</t>
+          <t>路博邁收益成長多重資產基金T累積(美元)</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>野村亞太複合非投資等級債券基金(美元月配)</t>
+          <t>路博邁優質企業債券基金T累積(美元)</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>野村亞太複合非投資等級債券基金(美元累積)</t>
+          <t>摩根士丹利印度股票基金A</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>野村環球基金(美元)</t>
+          <t>摩根士丹利亞洲永續股票基金A</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>凱基收益成長多重資產基金-美元A(累積)</t>
+          <t>摩根士丹利亞洲房地產基金A</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>凱基收益成長多重資產基金-美元B(月配)</t>
+          <t>摩根士丹利美國房地產基金A</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>凱基雲端趨勢基金-美元</t>
+          <t>摩根士丹利美國增長基金A</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>凱基醫院及長照產業基金-美元</t>
+          <t>摩根士丹利美國優勢基金A</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>富邦AI智能新趨勢多重資產型基金-A類型(美元)</t>
+          <t>摩根士丹利新一代新興市場基金A(美元)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>富邦大中華成長基金-(美元)</t>
+          <t>摩根士丹利新興市場國內債券基金A(美元)</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>富邦中國多重資產型基金-A類型(美元)</t>
+          <t>摩根士丹利新興市場國內債券基金ARM(美元)</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>富邦中國多重資產型基金-B類型(美元)</t>
+          <t>摩根士丹利新興市場債券基金A(美元)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>富邦中國非投資等級債券基金-A類型(美元)</t>
+          <t>摩根士丹利新興市場債券基金ARM(美元)</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>富邦中國非投資等級債券基金-B類型(美元)</t>
+          <t>摩根士丹利新興領先股票基金A(美元)</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>富邦中國優質債券基金-A類型(美元)</t>
+          <t>摩根士丹利歐洲機會基金AH(美元避險)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>富邦中國優質債券基金-B類型(美元)</t>
+          <t>摩根士丹利環球可轉換債券基金A</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>富邦全球不動產基金-(美元)</t>
+          <t>摩根士丹利環球平衡收益基金AHR(美元避險)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>富邦全球投資等級債券基金-A類型(美元)</t>
+          <t>摩根士丹利環球平衡收益基金AHRM(美元避險)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>富邦全球投資等級債券基金-B類型(美元)</t>
+          <t>摩根士丹利環球房地產基金A</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>富達中國內需消費基金(A股美元)</t>
+          <t>摩根士丹利環球非投資等級債券基金A(美元)</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>富達中國內需消費基金(A股累計美元)</t>
+          <t>摩根士丹利環球非投資等級債券基金AR(美元)</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>富達中國聚焦基金(A股美元)</t>
+          <t>摩根士丹利環球非投資等級債券基金ARM(美元)</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>富達太平洋基金(A股美元)</t>
+          <t>摩根士丹利環球品牌基金A</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>富達太平洋基金(A股美元避險)</t>
+          <t>摩根士丹利環球遠見基金 A (美元)</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>富達日本價值基金(A股累計美元避險)</t>
+          <t>摩根士丹利環球機會基金A</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>富達世界基金(A股累計美元)</t>
+          <t>摩根中國A股美元</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>富達北歐基金(A股累計美元避險)</t>
+          <t>摩根太平洋科技基金</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>富達永續發展人口商機基金(A股累計美元)</t>
+          <t>摩根太平洋證券基金</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>富達永續發展日本股票基金(A股累計美元避險)</t>
+          <t>摩根日本(日圓)(累計)基金-(美元對沖)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>富達永續發展水資源暨環保趨勢基金(A股累計美元)</t>
+          <t>摩根可持續基建基金(美元)(每季派息)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>富達永續發展全球存股優勢基金(A股【F1穩定月配息】美元避險)</t>
+          <t>摩根印度基金</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>富達永續發展全球存股優勢基金(A股美元)</t>
+          <t>摩根多元入息成長基金美元月配</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>富達永續發展全球存股優勢基金(A股累計美元)</t>
+          <t>摩根多元入息成長基金美元累積</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>富達永續發展全球健康護理基金(A股累計美元)</t>
+          <t>摩根亞洲小型企業基金</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>富達永續發展多重資產收益基金(A股美元)</t>
+          <t>摩根亞洲增長基金</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>富達永續發展亞洲股票基金(A股美元)</t>
+          <t>摩根亞洲總合非投資等級債券基金-美元月配息型</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>富達永續發展亞洲股票基金(A股累計美元)</t>
+          <t>摩根東協基金(美元)(累計)</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>富達永續發展美國股票基金(A股美元)</t>
+          <t>摩根泛亞太股票入息基金美元月配</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>富達永續發展消費品牌基金(A股累計美元)</t>
+          <t>摩根南韓基金</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>富達永續發展策略債券基金(A股累計美元)</t>
+          <t>摩根泰國基金</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>富達永續發展歐洲股票基金(A股累計美元避險)</t>
+          <t>摩根馬來西亞基金</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>富達全球入息基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM 全方位新興市場(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>富達全球入息基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM 拉丁美洲(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>富達全球入息基金(A股累計美元)</t>
+          <t>摩根基金-JPM 新興中東(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>富達全球主題機會基金(A股美元)</t>
+          <t>摩根基金-JPM 歐洲(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>富達全球多重資產收益基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM中國(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>富達全球多重資產收益基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM巴西(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>富達全球多重資產收益基金(A股累計美元)</t>
+          <t>摩根基金-JPM日本股票(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>富達全球金融服務基金(A股美元)</t>
+          <t>摩根基金-JPM全球成長(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>富達全球非投資等級債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM全球成長-A股(分派)</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>富達全球科技基金(A股累計美元)</t>
+          <t>摩根基金-JPM多重收益(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>富達全球科技基金(A股累計美元避險)</t>
+          <t>摩根基金-JPM亞太入息(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>富達全球通膨連結債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM亞太股票(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>富達全球短期收益基金(A股月配息美元)</t>
+          <t>摩根基金-JPM俄羅斯(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>富達全球短期收益基金(A股累計美元)</t>
+          <t>摩根基金-JPM美元浮動淨值貨幣(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>富達全球債券基金(A股美元)</t>
+          <t>摩根基金-JPM美國(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>富達全球債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM美國小型企業股票(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>富達全球聚焦基金(A股美元)</t>
+          <t>摩根基金-JPM美國企業成長(美元)-A股(累計))</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>富達全球聚焦基金(A股累計美元)</t>
+          <t>摩根基金-JPM美國全方位股票(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>富達全球優質債券基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM美國科技(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>富達全球優質債券基金(A股【F1穩定月配息】美元避險)</t>
+          <t>摩根基金-JPM美國智選(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>富達全球優質債券基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM美國價值(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>富達全球優質債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM美國複合收益債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>富達印尼基金(A股美元)</t>
+          <t>摩根基金-JPM核心總報酬(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>富達印度聚焦基金(A股美元)</t>
+          <t>摩根基金-JPM策略總報酬(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>富達亞太入息基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM新興中東(美元)-A股(分派)</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>富達亞太入息基金(A股美元)</t>
+          <t>摩根基金-JPM新興市場小型企業美元-A股perf(累計</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>富達亞洲小型企業基金(A股美元)</t>
+          <t>摩根基金-JPM新興市場本地貨幣債券(美元)-A股(每</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>富達亞洲小型企業基金(A股累計美元)</t>
+          <t>摩根基金-JPM新興市場本地貨幣債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>富達亞洲成長趨勢基金(A股美元)</t>
+          <t>摩根基金-JPM新興市場企業債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>富達亞洲成長趨勢基金(A股累計美元)</t>
+          <t>摩根基金-JPM新興市場投資級債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>富達亞洲非投資等級債券基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM新興市場股息收益(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>富達亞洲非投資等級債券基金(A股月配息美元)</t>
+          <t>摩根基金-JPM新興市場債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>富達亞洲非投資等級債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM新興歐洲股票(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>富達亞洲非投資等級債券基金(A股穩定月配息美元)</t>
+          <t>摩根基金-JPM歐洲(美元)-A股(分派)</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>富達亞洲債券基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM歐洲(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>富達亞洲債券基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM歐洲小型企業(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>富達亞洲債券基金(A股月配息美元)</t>
+          <t>摩根基金-JPM歐洲小型企業(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>富達亞洲債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM歐洲動力(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>富達拉丁美洲基金(A股美元)</t>
+          <t>摩根基金-JPM歐洲動力(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>富達東協基金(A股美元)</t>
+          <t>摩根基金-JPM歐洲策略股息(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>富達東協基金(A股累計美元)</t>
+          <t>摩根基金-JPM複合收益債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股【F1穩定月配息】美元)</t>
+          <t>摩根基金-JPM環球天然資源(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM環球企業債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4336,7 +4336,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股月配息美元)</t>
+          <t>摩根基金-JPM環球企業債券存續期對沖(美元)-D股</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股美元)</t>
+          <t>摩根基金-JPM環球股息(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股累計美元)</t>
+          <t>摩根基金-JPM環球非投資等級債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>富達美元非投資等級債券基金(A股穩定月配息美元)</t>
+          <t>摩根基金-JPM環球政府債券(美元對沖)-A股(累計)</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>富達美元現金基金(A股美元)</t>
+          <t>摩根基金-JPM環球短債(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>富達美元現金基金(A股累計美元)</t>
+          <t>摩根基金-JPM環球策略債券(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>富達美元債券基金(A股C月配息美元)</t>
+          <t>摩根基金-JPM環球債券收益(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4420,7 +4420,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>富達美元債券基金(A股月配息美元)</t>
+          <t>摩根基金-JPM環球新興市場機會(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>富達美元債券基金(A股美元)</t>
+          <t>摩根基金-JPM環球醫療科技(美元)-A股(累計)</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>富達美元債券基金(A股累計美元)</t>
+          <t>摩根新興市場非投資等級基金美元月配</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>富達美國成長基金(A股美元)</t>
+          <t>摩根環球股票收益基金美元月配</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>富達美國基金(A股美元)</t>
+          <t>鋒裕匯理全球非投資等級債券基金-A2 累積型(美元)</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>富達泰國基金(A股美元)</t>
+          <t>鋒裕匯理新興市場非投資等級債券基金-A2 累積型(美元)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>富達富達目標基金2020(A股美元)</t>
+          <t>鋒裕匯理實質收息多重資產基金-A2 累積型(美元)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>富達新興市場基金(A股美元)</t>
+          <t>聯博-永續主題基金A級別美元</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>富達新興市場基金(A股累計美元)</t>
+          <t>聯博-永續歐元非投資等級債券基金AA(穩定月配)美元避險級別</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>富達新興市場債券基金(A股【F1穩定月配息】美元)</t>
+          <t>聯博-全球不動產證券基金 A股美元</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>富達新興市場債券基金(A股C月配息美元)</t>
+          <t>聯博-全球不動產證券基金AD股美元</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>富達新興市場債券基金(A股月配息美元)</t>
+          <t>聯博-全球多元收益基金AD月配級別美元</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>富達新興市場債券基金(A股美元)</t>
+          <t>聯博-全球多元收益基金A級別美元</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>富達新興市場債券基金(A股累計美元)</t>
+          <t>聯博-全球非投資等級債券基金 A2股美元</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>富達新興亞洲基金(A股美元)</t>
+          <t>聯博-全球非投資等級債券基金 AT股美元</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>富達新興亞洲基金(A股累計美元)</t>
+          <t>聯博-全球非投資等級債券基金AA(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>富達新興歐非中東基金(A股美元)</t>
+          <t>聯博全球非投資等級債券基金-TA類型(美元)</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>富達新興歐非中東基金(A股累計美元)</t>
+          <t>聯博-全球核心股票基金A級別美元</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>富達德國基金(A股累計美元避險)</t>
+          <t>聯博-全球價值型基金AD月配級別美元</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>富達歐元債券基金(A股累計美元避險)</t>
+          <t>聯博-全球價值型基金A股美元</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>富達歐洲入息基金(A股【F1穩定月配息】美元避險)</t>
+          <t>聯博-全球複合型股票基金A股美元</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>富達歐洲小型企業基金(A股累計美元避險)</t>
+          <t>聯博-全球靈活收益基金A2級別美元</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4684,7 +4684,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>富達歐洲多重資產收益基金(A股累計美元避險)</t>
+          <t>聯博-全球靈活收益基金AT級別美元</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>富達歐洲非投資等級債券基金(A股月配息美元避險)</t>
+          <t>聯博-印度成長基金 A股美元</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>富達歐洲非投資等級債券基金(A股累計美元避險)</t>
+          <t>聯博-亞洲股票基金AD股美元</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4720,7 +4720,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>富達歐洲動能基金(A股累計美元避險)</t>
+          <t>聯博-亞洲股票基金A股美元</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4732,7 +4732,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>富達歐洲基金(A股累計美元避險)</t>
+          <t>聯博-房貸收益基金A2級別美元</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>富蘭克林華美中國消費基金-美元</t>
+          <t>聯博-房貸收益基金AA(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>富蘭克林華美全球成長基金-美元</t>
+          <t>聯博-房貸收益基金AT級別美元</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4768,7 +4768,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>富蘭克林華美全球投資級債券基金(分配型)-美元</t>
+          <t>聯博-美國中小型股票基金A級別美元</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4780,7 +4780,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>富蘭克林華美全球投資級債券基金(累積型)-美元</t>
+          <t>聯博-美國永續主題基金A股美元</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>富蘭克林華美全球醫療保健基金-美元</t>
+          <t>聯博-美國成長基金 A股美元</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>富蘭克林華美亞太平衡基金(分配型)-美元</t>
+          <t>聯博-美國成長基金AD月配級別美元</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>富蘭克林華美亞太平衡基金(累積型)-美元</t>
+          <t>聯博-美國收益基金 A2股美元</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4828,7 +4828,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>富蘭克林華美特別股收益基金(A累積型)-美元</t>
+          <t>聯博-美國收益基金 AT股美元</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4840,7 +4840,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>富蘭克林華美退休傘型基金之目標2027組合基金-美元</t>
+          <t>聯博-美國收益基金AA(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>富蘭克林華美退休傘型基金之目標2037組合基金-美元</t>
+          <t>聯博-美國非投資等級債券基金A2級別美元</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>富蘭克林華美退休傘型基金之目標2047組合基金-美元</t>
+          <t>聯博-美國非投資等級債券基金AA(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>富蘭克林華美策略高股息基金(分配型)-美元</t>
+          <t>聯博-美國非投資等級債券基金AI(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>富蘭克林華美策略高股息基金(累積型)-美元</t>
+          <t>聯博-國際科技基金 A股美元</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>富蘭克林華美新世界股票基金-美元</t>
+          <t>聯博-國際醫療基金 A股美元</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>富蘭克林華美新興國家固定收益基金(A累積型)-美元</t>
+          <t>聯博-短期債券基金A2股美元</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>富蘭克林華美新興國家固定收益基金(B分配型)美元</t>
+          <t>聯博-短期債券基金AA(穩定月配)級別美元</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4936,7 +4936,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>富蘭克林華美新興趨勢傘型基金之積極回報債券組合基金(分配型)-美元</t>
+          <t>聯博-短期債券基金AT股美元</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>復華全球大趨勢基金-美元</t>
+          <t>聯博債券收益組合基金-AA類型(美元)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4960,7 +4960,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>復華全球物聯網科技基金-美元</t>
+          <t>聯博新興市場企業債券基金-AA類型(美元)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4972,7 +4972,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>復華亞太神龍科技基金-美元</t>
+          <t>聯博-新興市場多元收益基金AD月配級別美元</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,7 +4984,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>復華美國新星基金-美元</t>
+          <t>聯博-新興市場多元收益基金A級別美元</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>復華奧林匹克全球優勢組合基金-美元</t>
+          <t>聯博-新興市場成長基金 A股美元</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>景順全天候智慧組合基金-月配型美元</t>
+          <t>聯博-新興市場債券基金A2股美元</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>景順全天候智慧組合基金-累積型美元</t>
+          <t>聯博-新興市場債券基金AT股美元</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>華南永昌Shiller US CAPE ETF組合基金-月配美元</t>
+          <t>聯博-新興市場當地貨幣債券基金A2級別美元</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>華南永昌Shiller US CAPE ETF組合基金-累積美元</t>
+          <t>聯博-新興市場當地貨幣債券基金AT級別美元</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>華南永昌全球物聯網精選基金-美元</t>
+          <t>聯博-新興市場價值基金A股美元</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -5068,7 +5068,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>華南永昌多重資產入息平衡基金-月配美元</t>
+          <t>聯博-新興市場優化波動股票基金A級別美元</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>華南永昌多重資產入息平衡基金-累積美元</t>
+          <t>聯博新興亞洲收益基金-AA類型(美元)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>匯豐中國Ａ股匯聚基金- 美元</t>
+          <t>聯博-精選美國股票基金A股美元</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>匯豐中國科技精選基金- 美元</t>
+          <t>聯博-聚焦全球股票基金A級別美元</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -5116,7 +5116,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>匯豐亞洲非投資等級債券基金-美元不配息</t>
+          <t>聯博-聚焦美國股票基金A級別美元</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>匯豐亞洲非投資等級債券基金-美元配息</t>
+          <t>聯博-歐元區股票基金A級別美元</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>新光中國成長基金(美元)</t>
+          <t>聯博歐洲多重資產基金-AD類型(美元)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5152,7 +5152,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>新光全球AI新創產業基金(美元)</t>
+          <t>聯博歐洲多重資產基金-AI類型(美元)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,7 +5164,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>新光全球生技醫療基金(美元)</t>
+          <t>聯博-歐洲收益基金 A2股美元</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>新光全球特別股基金(A累積)美元</t>
+          <t>聯博-歐洲收益基金 AT股美元</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>新光全球債券基金(A累積)美元</t>
+          <t>聯博-歐洲收益基金AT股美元避險</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>新光全球債券基金(B配息)美元</t>
+          <t>聯博-歐洲股票基金A級別美元</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>新光美國豐收平衡基金(A累積)美元</t>
+          <t>聯博-優化波動股票基金A級別美元</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>新光美國豐收平衡基金(B配息)美元</t>
+          <t>聯博-優化短期非投資等級債券基金A2級別美元</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -5236,2736 +5236,1476 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>新光新興富域國家債券(A累積)美元</t>
+          <t>安聯東方入息基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR06X0B:FO</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>新光新興富域國家債券基金(B配息)美元</t>
+          <t>安聯泰國股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR06X01:FO</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>瑞銀亞洲非投資等級債券基金(美元)A類型(累積)</t>
+          <t>安聯亞洲總回報股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR06BTU:FO</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>瑞銀亞洲非投資等級債券基金(美元)B類型(月配息)</t>
+          <t>安聯全球永續發展基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0GBR04EHU:FO</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>群益大印度基金-美元</t>
+          <t>安聯寵物新經濟基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000017GX4:FO</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>群益工業國入息基金B(月配型-美元)</t>
+          <t>安聯策略信用債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000017GX2:FO</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>群益中國金采平衡基金A(累積型-美元)</t>
+          <t>安聯綠色債券基金-AMf固定月配類股(美元避險)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000016OGF:FO</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>群益中國金采平衡基金B(月配型-美元)</t>
+          <t>安聯美國收益基金-AMf固定月配類股(美元)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000016OGE:FO</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>群益中國新機會基金-美元</t>
+          <t>安聯全球機會債券基金-AMf固定月配類股(美元)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000016OGD:FO</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>群益全民成長樂退組合基金A(累積型-美元)</t>
+          <t>安聯全球機會債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000015TBX:FO</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>群益全民成長樂退組合基金B(月配型-美元)</t>
+          <t>安聯歐元非投資等級債券基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000015TBU:FO</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>群益全民優質樂退組合基金A(累積型-美元)</t>
+          <t>安聯全球收益成長基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000015TBQ:FO</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>群益全民優質樂退組合基金B(月配型-美元)</t>
+          <t>安聯全球高成長股票基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000015FXF:FO</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>群益全球地產入息基金A(累積型-美元)</t>
+          <t>安聯美國收益基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000152BI:FO</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>群益全球地產入息基金B(月配型-美元)</t>
+          <t>安聯美國收益基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000152BG:FO</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>群益全球特別股收益基金A(累積型-美元)</t>
+          <t>安聯美元短年期非投資等級債券基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000014UTW:FO</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>群益全球特別股收益基金B(月配型-美元)</t>
+          <t>安聯收益成長基金-AMg7月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000014R7W:FO</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>群益全球關鍵生技基金-美元</t>
+          <t>安聯收益成長多重資產基金-A類型(累積)-美元</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000014NGH:FO</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>群益印度中小基金-美元</t>
+          <t>貝萊德ESG社會責任多元資產基金A8多幣別穩定月配息股份-美元幣避險</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000014MGW:FO</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>群益東協成長基金-美元</t>
+          <t>安聯水資源基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000014JVT:FO</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>群益金選報酬平衡基金A(累積型-美元)</t>
+          <t>PGIM保德信美國投資級企業債券基金-美元累積型</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000149F9:FO</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>群益金選報酬平衡基金B(月配型-美元)</t>
+          <t>凱基收益成長多重資產基金-美元A(累積)</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000146KF:FO</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>群益美國新創亮點基金-美元</t>
+          <t>兆豐中國內需A股基金(美金)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000013X8D:FO</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>群益華夏盛世基金-美元</t>
+          <t>安聯主題趨勢基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000011VT7:FO</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>群益環球金綻雙喜基金A(累積型-美元)</t>
+          <t>第一金全球AI人工智慧基金-美元</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000011SE8:FO</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>群益環球金綻雙喜基金B(月配型-美元)</t>
+          <t>富邦AI智能新趨勢多重資產型基金-A類型(美元)</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000011N7U:FO</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>路博邁5G股票基金T累積(美元)</t>
+          <t>安聯綠色債券基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000011I5U:FO</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>路博邁收益成長多重資產基金T月配(美元)</t>
+          <t>安聯中國策略基金-美元</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000113AQ:FO</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>路博邁收益成長多重資產基金T累積(美元)</t>
+          <t>安聯多元信用債券基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010UTH:FO</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>路博邁優質企業債券基金T月配(美元)</t>
+          <t>中國信託智慧城市建設基金-美元</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010SLB:FO</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>路博邁優質企業債券基金T累積(美元)</t>
+          <t>柏瑞環球基金-柏瑞環球動態資產配置基金 ADCT(穩定月配)</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010QC4:FO</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>摩根士丹利印度股票基金A</t>
+          <t>PGIM保德信新興市場企業債券基金-美元月配息型</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010N1Y:FO</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>摩根士丹利亞洲永續股票基金A</t>
+          <t>台新中國精選中小基金-美元</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010I15:FO</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>摩根士丹利亞洲房地產基金A</t>
+          <t>第一金中國世紀基金-美元</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F0000109DV:FO</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>摩根士丹利美國房地產基金A</t>
+          <t>安聯全球新興市場高股息基金-AM穩定月收類股(美元避險)</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000010426:FO</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>摩根士丹利美國增長基金A</t>
+          <t>復華亞太神龍科技基金-美元</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000ZYYQ:FO</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>摩根士丹利美國優勢基金A</t>
+          <t>富蘭克林華美全球醫療保健基金-美元</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000ZMY4:FO</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>摩根士丹利新一代新興市場基金A(美元)</t>
+          <t>富邦大中華成長基金-(美元)</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000ZCK3:FO</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>摩根士丹利新興市場國內債券基金A(美元)</t>
+          <t>群益全球特別股收益基金B(月配型-美元)</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Z1UI:FO</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>摩根士丹利新興市場國內債券基金ARM(美元)</t>
+          <t>群益全球特別股收益基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Z1UH:FO</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>摩根士丹利新興市場債券基金A(美元)</t>
+          <t>安聯AI人工智慧基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YS7N:FO</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>摩根士丹利新興市場債券基金ARM(美元)</t>
+          <t>PGIM保德信策略成長ETF組合基金-美元</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YRFK:FO</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>摩根士丹利新興領先股票基金A(美元)</t>
+          <t>新光中國成長基金(美元)</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YN6P:FO</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>摩根士丹利歐洲機會基金AH(美元避險)</t>
+          <t>安聯美國收益基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YN5V:FO</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>摩根士丹利環球可轉換債券基金A</t>
+          <t>安聯多元信用債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YM1Z:FO</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>摩根士丹利環球平衡收益基金AHR(美元避險)</t>
+          <t>安聯動力亞洲非投資等級債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000YHJW:FO</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>摩根士丹利環球平衡收益基金AHRM(美元避險)</t>
+          <t>安聯全球機會債券基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Y8I3:FO</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>摩根士丹利環球房地產基金A</t>
+          <t>富邦全球投資等級債券基金-B類型(美元)</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Y73A:FO</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>摩根士丹利環球非投資等級債券基金A(美元)</t>
+          <t>富邦全球投資等級債券基金-A類型(美元)</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Y739:FO</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>摩根士丹利環球非投資等級債券基金AR(美元)</t>
+          <t>貝萊德世界地產證券基金 A6 美元 (穩定配息)</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XYDK:FO</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>摩根士丹利環球非投資等級債券基金ARM(美元)</t>
+          <t>中國信託樂齡收益平衡基金-美元B</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XVJ3:FO</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>摩根士丹利環球品牌基金A</t>
+          <t>中國信託樂齡收益平衡基金-美元A</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XVJ2:FO</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>摩根士丹利環球遠見基金 A (美元)</t>
+          <t>新光全球債券基金(B配息)美元</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XRH0:FO</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>摩根士丹利環球機會基金A</t>
+          <t>新光全球債券基金(A累積)美元</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XRGZ:FO</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>摩根中國A股美元</t>
+          <t>日盛中國戰略A股基金(美元)</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XPHN:FO</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>摩根太平洋科技基金</t>
+          <t>PGIM保德信中國中小基金-美元</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XOZN:FO</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>摩根太平洋證券基金</t>
+          <t>富邦全球不動產基金-(美元)</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XOH4:FO</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>摩根日本(日圓)(累計)基金-(美元對沖)</t>
+          <t>元大新東協平衡基金-美元</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XKUF:FO</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>摩根可持續基建基金(美元)(每季派息)</t>
+          <t>新光全球生技醫療基金(美元)</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XKPR:FO</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>摩根印度基金</t>
+          <t>安聯歐洲小型股票基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XGXR:FO</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>摩根多元入息成長基金美元月配</t>
+          <t>柏瑞環球動態資產配置基金 ADC</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XE9V:FO</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>摩根多元入息成長基金美元累積</t>
+          <t>安聯美國多元投資風格股票基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XE8C:FO</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>摩根亞洲小型企業基金</t>
+          <t>復華全球物聯網科技基金-美元</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XDVC:FO</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>摩根亞洲增長基金</t>
+          <t>第一金全球AI機器人及自動化產業基金-美元</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XAS7:FO</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>摩根亞洲總合非投資等級債券基金-美元月配息型</t>
+          <t>群益全球地產入息基金B(月配型-美元)</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XALW:FO</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>摩根東協基金(美元)(累計)</t>
+          <t>群益全球地產入息基金A(累積型-美元)</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000XALV:FO</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>摩根泛亞太股票入息基金美元月配</t>
+          <t>群益大印度基金-美元</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000X0C5:FO</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>摩根南韓基金</t>
+          <t>新光美國豐收平衡基金(B配息)美元</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WZIR:FO</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>摩根泰國基金</t>
+          <t>新光美國豐收平衡基金(A累積)美元</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WZIQ:FO</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>摩根馬來西亞基金</t>
+          <t>安聯美元短年期非投資等級債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WYKW:FO</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>摩根基金-JPM 全方位新興市場(美元)-A股(累計)</t>
+          <t>安聯四季回報債券組合基金-A類型(累積)-美元</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WTJ1:FO</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>摩根基金-JPM 拉丁美洲(美元)-A股(累計)</t>
+          <t>安聯美元短年期非投資等級債券基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WNDU:FO</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>摩根基金-JPM 新興中東(美元)-A股(累計)</t>
+          <t>復華美國新星基金-美元</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WLEJ:FO</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>摩根基金-JPM 歐洲(美元)-A股(累計)</t>
+          <t>復華奧林匹克全球優勢組合基金-美元</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WKGN:FO</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>摩根基金-JPM中國(美元)-A股(分派)</t>
+          <t>復華全球大趨勢基金-美元</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WIIW:FO</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>摩根基金-JPM中國(美元)-A股(累計)</t>
+          <t>安聯亞洲靈活債券基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WI3R:FO</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>摩根基金-JPM巴西(美元)-A股(累計)</t>
+          <t>安聯歐洲高息股票基金-AMg穩定月收總收益類股(美元避險)</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WI3P:FO</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>摩根基金-JPM日本股票(美元對沖)-A股(累計)</t>
+          <t>富蘭克林華美新世界股票基金-美元</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WI20:FO</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>摩根基金-JPM全方位新興市場(美元)-A股(分派)</t>
+          <t>安聯亞洲總回報股票基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WF9C:FO</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>摩根基金-JPM全球成長(美元)-A股(累計)</t>
+          <t>安聯亞洲多元收益基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WF94:FO</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>摩根基金-JPM全球成長-A股(分派)</t>
+          <t>安聯全球新興市場高股息基金-AMg穩定月收總收益類股(美元)</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WE9T:FO</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>摩根基金-JPM多重收益(美元對沖)-A股(利率入息)</t>
+          <t>富蘭克林華美中國消費基金-美元</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WE5X:FO</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>摩根基金-JPM多重收益(美元對沖)-A股(每月派息)</t>
+          <t>安聯中華新思路基金-美元</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000WB83:FO</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>摩根基金-JPM多重收益(美元對沖)-A股(每季派息)</t>
+          <t>PGIM保德信中國品牌基金-美元</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000W9JP:FO</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>摩根基金-JPM多重收益(美元對沖)-A股(累計)</t>
+          <t>匯豐亞洲非投資等級債券基金-美元配息</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VWZS:FO</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>摩根基金-JPM多重收益(美元對沖)-A股(穩定月配)</t>
+          <t>匯豐亞洲非投資等級債券基金-美元不配息</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VWZQ:FO</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>摩根基金-JPM亞太入息(美元)-A股(分派)</t>
+          <t>安聯全球生技趨勢基金-美元</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VOM9:FO</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>摩根基金-JPM亞太入息(美元)-A股(每月派息)</t>
+          <t>富邦中國多重資產型基金-B類型(美元)</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VHGT:FO</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>摩根基金-JPM亞太入息(美元)-A股(累計)</t>
+          <t>富邦中國多重資產型基金-A類型(美元)</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VHGS:FO</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>摩根基金-JPM亞太股票(美元)-A股(累計)</t>
+          <t>安聯歐洲成長精選基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000VH1A:FO</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>摩根基金-JPM拉丁美洲(美元)-A股(分派)</t>
+          <t>富蘭克林華美全球成長基金-美元</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000V522:FO</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>摩根基金-JPM俄羅斯(美元)-A股(分派)</t>
+          <t>PGIM保德信全球醫療生化基金-美元</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000UQ56:FO</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>摩根基金-JPM俄羅斯(美元)-A股(累計)</t>
+          <t>安聯四季雙收入息組合基金-B類型(月配息)-美元</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000U4ZH:FO</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美元浮動淨值貨幣(美元)-A股(累計)</t>
+          <t>安聯四季雙收入息組合基金-A類型(累積)-美元</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000U4ZG:FO</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國(美元)-A股(分派)</t>
+          <t>兆豐中國A股基金(美金)</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000U4HP:FO</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國(美元)-A股(累計)</t>
+          <t>安聯四季成長組合基金-美元</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000TY7R:FO</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國小型企業股票(美元)-A股(分派)</t>
+          <t>群益工業國入息基金B(月配型-美元)</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000TNWI:FO</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國小型企業股票(美元)-A股(累計)</t>
+          <t>貝萊德新興市場股票收益基金A6美元(穩定配息)</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000T4LQ:FO</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國企業成長(美元)-A股(分派)</t>
+          <t>群益中國新機會基金-美元</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000T1FR:FO</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國企業成長(美元)-A股(累計))</t>
+          <t>安聯東方入息基金-A 配息類股(美元避險)</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000SS1Q:FO</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國全方位股票(美元)-A股(累計)</t>
+          <t>安聯亞洲總回報股票基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000SK7M:FO</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國科技(美元)-A股(分派)</t>
+          <t>安聯歐陸成長基金-AT累積類股(美元避險)</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000S6DZ:FO</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國科技(美元)-A股(累計)</t>
+          <t>安聯歐洲高息股票基金-AM穩定月收類股(美元避險)</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000QJCP:FO</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國智選(美元)-A股(累計)</t>
+          <t>貝萊德日本靈活股票基金 Hedged A2 美元</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000Q4HH:FO</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國價值(美元)-A股(分派)</t>
+          <t>貝萊德世界地產證券基金 A2 美元</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000PLSP:FO</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國價值(美元)-A股(累計)</t>
+          <t>安聯歐元非投資等級債券基金-AM穩定月收類股(美元避險)</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000PLQ8:FO</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國複合收益債券(美元)-A股(分派)</t>
+          <t>安聯收益成長基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000OXXD:FO</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國複合收益債券(美元)-A股(每月派息)</t>
+          <t>安聯亞洲靈活債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000OJAC:FO</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>摩根基金-JPM美國複合收益債券(美元)-A股(累計)</t>
+          <t>安聯亞洲靈活債券基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000OJAB:FO</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>摩根基金-JPM核心總報酬(美元)-A股(累計)</t>
+          <t>安聯收益成長基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000NDK5:FO</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>摩根基金-JPM策略總報酬(美元對沖)-A股(累計)</t>
+          <t>安聯亞洲多元收益基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000N9X2:FO</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興中東(美元)-A股(分派)</t>
+          <t>安聯美元非投資等級債券基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000N9X0:FO</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場小型企業美元-A股perf(累計</t>
+          <t>貝萊德新興市場股票收益基金A2美元</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000MU9O:FO</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場本地貨幣債券(美元)-A股(每</t>
+          <t>安聯美元非投資等級債券基金-AM穩定月收類股(美元)</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000JNI0:FO</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場本地貨幣債券(美元)-A股(累計)</t>
+          <t>貝萊德ESG社會責任多元資產基金Hedged A2 美元</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F00000H33D:FO</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場企業債券(美元)-A股(每月派息)</t>
+          <t>安聯全球新興市場高股息基金-AT累積類股(美元)</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000RIH:FO</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場企業債券(美元)-A股(累計)</t>
+          <t>安聯全球高成長科技基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F80:FO</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場投資級債券(美元)-A股(每月派息)</t>
+          <t>安聯韓國股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F7Z:FO</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場投資級債券(美元)-A股(累計)</t>
+          <t>安聯中國股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F7X:FO</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場股息收益(美元)-A股(每月派息)</t>
+          <t>安聯新興亞洲股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F7V:FO</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場股息收益(美元)-A股(累計)</t>
+          <t>安聯香港股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F7U:FO</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場債券(美元)-A股(每月派息)</t>
+          <t>安聯印尼股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>F000000F7T:FO</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>摩根基金-JPM新興市場債券(美元)-A股(累計)</t>
+          <t>安聯日本股票基金-A配息類股(美元)</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM新興市場債券(美元)-A股(穩定月配)</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM新興歐洲股票(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲(美元)-A股(分派)</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲(美元對沖)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲小型企業(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲小型企業(美元對沖)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲動力(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲動力(美元對沖)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲策略股息(美元對沖)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM歐洲策略股息(美元對沖)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM複合收益債券(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球天然資源(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球企業債券(美元)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球企業債券(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球企業債券存續期對沖(美元)-D股</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球股息(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球股息(美元對沖)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球非投資等級債券(美元)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球非投資等級債券(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球非投資等級債券(美元)-A股(穩定月配)</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球政府債券(美元對沖)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球短債(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球策略債券(美元)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球策略債券(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球債券收益(美元)-A股(每月派息)</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球債券收益(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球新興市場機會(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>摩根基金-JPM環球醫療科技(美元)-A股(累計)</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>摩根新興市場非投資等級基金美元月配</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>摩根環球股票收益基金美元月配</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>鋒裕匯理全球非投資等級債券基金-A2 累積型(美元)</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>鋒裕匯理全球非投資等級債券基金-AD 月配型(美元)</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>鋒裕匯理新興市場非投資等級債券基金-A2 累積型(美元)</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>鋒裕匯理新興市場非投資等級債券基金-AD 月配型(美元)</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>鋒裕匯理實質收息多重資產基金-A2 累積型(美元)</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>鋒裕匯理實質收息多重資產基金-AD 月配型(美元)</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>聯博-永續主題基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>聯博-永續歐元非投資等級債券基金AA(穩定月配)美元避險級別</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>聯博-全球不動產證券基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>聯博-全球不動產證券基金AD股美元</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>聯博-全球多元收益基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>聯博-全球多元收益基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>聯博-全球非投資等級債券基金 A2股美元</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>聯博-全球非投資等級債券基金 AT股美元</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>聯博-全球非投資等級債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>聯博全球非投資等級債券基金-TA類型(美元)</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>聯博-全球核心股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>聯博-全球價值型基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>聯博-全球價值型基金A股美元</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>聯博-全球複合型股票基金A股美元</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>聯博-全球靈活收益基金A2級別美元</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>聯博-全球靈活收益基金AT級別美元</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>聯博-印度成長基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>聯博-亞洲股票基金AD股美元</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>聯博-亞洲股票基金A股美元</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>聯博-房貸收益基金A2級別美元</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>聯博-房貸收益基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>聯博-房貸收益基金AT級別美元</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>聯博-美國中小型股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>聯博-美國永續主題基金A股美元</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>聯博-美國成長基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>聯博-美國成長基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>聯博-美國收益基金 A2股美元</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>聯博-美國收益基金 AT股美元</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>聯博-美國收益基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>聯博-美國非投資等級債券基金A2級別美元</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>聯博-美國非投資等級債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>聯博-美國非投資等級債券基金AI(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>聯博-國際科技基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>聯博-國際醫療基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>聯博-短期債券基金A2股美元</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>聯博-短期債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>聯博-短期債券基金AT股美元</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>聯博債券收益組合基金-AA類型(美元)</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>聯博新興市場企業債券基金-AA類型(美元)</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>聯博-新興市場多元收益基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>聯博-新興市場多元收益基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>聯博-新興市場成長基金 A股美元</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>聯博-新興市場債券基金A2股美元</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>聯博-新興市場債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>聯博-新興市場債券基金AI(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>聯博-新興市場債券基金AT股美元</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>聯博-新興市場當地貨幣債券基金A2級別美元</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>聯博-新興市場當地貨幣債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>聯博-新興市場當地貨幣債券基金AT級別美元</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>聯博-新興市場價值基金A股美元</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>聯博-新興市場優化波動股票基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>聯博-新興市場優化波動股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>聯博新興亞洲收益基金-AA類型(美元)</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>聯博-精選美國股票基金A股美元</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>聯博-聚焦全球股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>聯博-聚焦美國股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>聯博-歐元區股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>聯博歐洲多重資產基金-AD類型(美元)</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>聯博歐洲多重資產基金-AI類型(美元)</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>聯博-歐洲收益基金 A2股美元</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>聯博-歐洲收益基金 AT股美元</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>聯博-歐洲收益基金AA(穩定月配)美元避險級別</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>聯博-歐洲收益基金AT股美元避險</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>聯博-歐洲股票基金AD月配美元避險級別</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>聯博-歐洲股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>聯博-優化波動股票基金AD月配級別美元</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>聯博-優化波動股票基金A級別美元</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>聯博-優化短期非投資等級債券基金A2級別美元</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>聯博-優化短期非投資等級債券基金AA(穩定月配)級別美元</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>F000000F7R:FO</t>
         </is>
       </c>
     </row>
